--- a/test/mrWolf/fft/test_lib/singlecore_riscy/performance.xlsx
+++ b/test/mrWolf/fft/test_lib/singlecore_riscy/performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Documents/PULP-DSP_miniproject/PULP-DSP/test/mrWolf/fft/test_lib/singlecore_riscy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D4B41-A309-2A4B-8224-DB7F0491EB93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF8980-6358-F349-8566-AAAF782B8B09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1220" windowWidth="28240" windowHeight="17560" activeTab="3" xr2:uid="{71B939BF-7C30-E440-965E-C80482E583B9}"/>
+    <workbookView xWindow="2400" yWindow="1220" windowWidth="28240" windowHeight="17560" activeTab="2" xr2:uid="{71B939BF-7C30-E440-965E-C80482E583B9}"/>
   </bookViews>
   <sheets>
     <sheet name="LUT" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,7 @@
     <sheet name="FFT" sheetId="3" r:id="rId3"/>
     <sheet name="Stages" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">LUT!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">LUT!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">LUT!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">LUT!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Shifting!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Shifting!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Shifting!$C$3:$C$7</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="40">
   <si>
     <t>N_FFT</t>
   </si>
@@ -99,12 +90,6 @@
     <t>Load Stalls</t>
   </si>
   <si>
-    <t>single, n=512 -&gt; 8 stages</t>
-  </si>
-  <si>
-    <t>parallel 8-core, n=512 -&gt; 8 stages</t>
-  </si>
-  <si>
     <t>parallel 4-core, n=512 -&gt; 8 stages</t>
   </si>
   <si>
@@ -113,13 +98,70 @@
   <si>
     <t>parallel 1-core, n=512 -&gt; 8 stages</t>
   </si>
+  <si>
+    <t>nPE\nPE</t>
+  </si>
+  <si>
+    <t>16-bit single</t>
+  </si>
+  <si>
+    <t>pseudo Parallization speed-up</t>
+  </si>
+  <si>
+    <t>Parallelization speed-up</t>
+  </si>
+  <si>
+    <t>vectorized &amp; cplx extension speed-up</t>
+  </si>
+  <si>
+    <t>vect&amp;cplx</t>
+  </si>
+  <si>
+    <t>vect.</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>no extensions</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>16-bit single, n=512 -&gt; 8 stages</t>
+  </si>
+  <si>
+    <t>16-bit parallel 8-core, n=512 -&gt; 8 stages</t>
+  </si>
+  <si>
+    <t>32-bit single, n=512 -&gt; 8 stages</t>
+  </si>
+  <si>
+    <t>32-bit parallel 2-core, n=512 -&gt; 8 stages</t>
+  </si>
+  <si>
+    <t>load cycles LUTs</t>
+  </si>
+  <si>
+    <t>n=2</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>n=4</t>
+  </si>
+  <si>
+    <t>n=8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -152,7 +194,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1125,9 +1167,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Cycles</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1183,19 +1222,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9672</c:v>
+                  <c:v>8650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21273</c:v>
+                  <c:v>19072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46490</c:v>
+                  <c:v>41826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101035</c:v>
+                  <c:v>91641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>218268</c:v>
+                  <c:v>199207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,9 +1249,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Instructions</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1268,19 +1304,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9066</c:v>
+                  <c:v>8502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19961</c:v>
+                  <c:v>18858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43624</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94839</c:v>
+                  <c:v>91043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204870</c:v>
+                  <c:v>198103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,9 +1331,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Load Stalls</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1353,19 +1386,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>448</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2304</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5120</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11264</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,6 +1628,1284 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Parallelization speed-up</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>16-bit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>FFT!$I$38:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FFT!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82315201133590488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7595389339952043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.240567134113272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8711398090960136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E56-7B4D-A7BC-6FA3BC6F67F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>32-bit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>FFT!$I$38:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FFT!$J$38:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82207039532582571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7570142399645512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3070740768822504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1488686825967438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E56-7B4D-A7BC-6FA3BC6F67F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="330803695"/>
+        <c:axId val="269198255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="330803695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269198255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269198255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330803695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Vector</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> &amp; Cplx extension speed-up</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>scalar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>FFT!$L$56:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E10-0D4C-B107-26A1445275A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>vectorized</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>FFT!$I$56:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FFT!$J$56:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6559537572254337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7391463926174495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7931908382345911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8254493076243166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8502763457107432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E10-0D4C-B107-26A1445275A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>vectorized &amp; cplx extensions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>FFT!$I$56:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FFT!$K$56:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.351136363636364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6031368402502419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7931402313941085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9147179409308333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0182951080471963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E10-0D4C-B107-26A1445275A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="405851615"/>
+        <c:axId val="406032671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="405851615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406032671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406032671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405851615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FFT!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FFT!$B$55:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>567795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F340-D64A-9441-0EFA540614B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FFT!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FFT!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F340-D64A-9441-0EFA540614B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1052097472"/>
+        <c:axId val="1052452672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1052097472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1052452672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1052452672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1052097472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1715,6 +3026,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2735,6 +4166,1528 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3336,16 +6289,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3365,6 +6318,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98A680C-3819-D44F-920A-EBC1425071A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56568CB8-0D8C-0445-A451-472294819F59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A348ADDF-0FF0-5147-B78E-8A00047FEC2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4104,20 +7165,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70C88CF-F60F-3C4C-94BE-0C4E78418DAB}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4133,103 +7194,163 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>128</v>
       </c>
       <c r="B3">
-        <v>9672</v>
+        <v>8650</v>
       </c>
       <c r="C3">
-        <v>9066</v>
+        <v>8502</v>
       </c>
       <c r="D3">
-        <v>448</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <f>C3/B3</f>
-        <v>0.93734491315136481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.98289017341040463</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>256</v>
       </c>
       <c r="B4">
-        <v>21273</v>
+        <v>19072</v>
       </c>
       <c r="C4">
-        <v>19961</v>
+        <v>18858</v>
       </c>
       <c r="D4">
-        <v>1024</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E7" si="0">C4/B4</f>
-        <v>0.93832557702251684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.98877936241610742</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <f>B5/B12</f>
+        <v>0.82315201133590488</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>0.91494135243643238</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>512</v>
       </c>
       <c r="B5">
-        <v>46490</v>
+        <v>41826</v>
       </c>
       <c r="C5">
-        <v>43624</v>
+        <v>41486</v>
       </c>
       <c r="D5">
-        <v>2304</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.93835233383523342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99187108497107057</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <f>B5/B13</f>
+        <v>1.7595389339952043</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>1.955744394430188</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1024</v>
       </c>
       <c r="B6">
-        <v>101035</v>
+        <v>91641</v>
       </c>
       <c r="C6">
-        <v>94839</v>
+        <v>91043</v>
       </c>
       <c r="D6">
-        <v>5120</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.93867471668233782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99347453650658546</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <f>B5/B14</f>
+        <v>3.240567134113272</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>3.6019214379793909</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2048</v>
       </c>
       <c r="B7">
-        <v>218268</v>
+        <v>199207</v>
       </c>
       <c r="C7">
-        <v>204870</v>
+        <v>198103</v>
       </c>
       <c r="D7">
-        <v>11264</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.93861674638517789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99445802607338096</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3">
+        <f>B5/B15</f>
+        <v>5.8711398090960136</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>6.5258281864121281</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4248,101 +7369,191 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>54536</v>
+        <v>50812</v>
       </c>
       <c r="C12">
-        <v>49046</v>
+        <v>47596</v>
       </c>
       <c r="D12">
-        <v>2305</v>
-      </c>
-      <c r="E12">
+        <v>2311</v>
+      </c>
+      <c r="E12" s="1">
         <f>C12/B12</f>
-        <v>0.89933255097550246</v>
+        <v>0.93670786428402741</v>
       </c>
       <c r="F12" s="2">
         <f>(B12*A12-B5)/A12</f>
-        <v>8046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8986</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <f>B13/B12</f>
+        <v>0.46782256159962216</v>
+      </c>
+      <c r="L12" s="3">
+        <f>B14/B12</f>
+        <v>0.25401479965362511</v>
+      </c>
+      <c r="M12" s="3">
+        <f>B15/B12</f>
+        <v>0.14020310162953634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>25492</v>
+        <v>23771</v>
       </c>
       <c r="C13">
-        <v>22441</v>
+        <v>22061</v>
       </c>
       <c r="D13">
-        <v>1025</v>
-      </c>
-      <c r="E13">
+        <v>1031</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" ref="E13:E15" si="1">C13/B13</f>
-        <v>0.8803153930644908</v>
+        <v>0.9280636069159901</v>
       </c>
       <c r="F13" s="2">
         <f>(B13*A13-B5)/A13</f>
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2858</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <f>B12/B13</f>
+        <v>2.1375625762483699</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <f>B14/B13</f>
+        <v>0.5429725295528165</v>
+      </c>
+      <c r="M13" s="3">
+        <f>B15/B13</f>
+        <v>0.29969290311724373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>13620</v>
+        <v>12907</v>
       </c>
       <c r="C14">
-        <v>11930</v>
+        <v>11864</v>
       </c>
       <c r="D14">
-        <v>449</v>
-      </c>
-      <c r="E14">
+        <v>455</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>0.8759177679882526</v>
+        <v>0.9191911365925467</v>
       </c>
       <c r="F14" s="2">
         <f>(B14*A14-B5)/A14</f>
-        <v>1997.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2450.5</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <f>B12/B14</f>
+        <v>3.9367784922910047</v>
+      </c>
+      <c r="K14" s="3">
+        <f>B13/B14</f>
+        <v>1.8417137987138761</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <f>B15/B14</f>
+        <v>0.55194855504764861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>7258</v>
+        <v>7124</v>
       </c>
       <c r="C15">
-        <v>6263</v>
+        <v>6329</v>
       </c>
       <c r="D15">
-        <v>193</v>
-      </c>
-      <c r="E15">
+        <v>199</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>0.86290989253237804</v>
+        <v>0.8884053902302077</v>
       </c>
       <c r="F15" s="2">
         <f>(B15*A15-B5)/A15</f>
-        <v>1446.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1895.75</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <f>B12/B15</f>
+        <v>7.1325098259404829</v>
+      </c>
+      <c r="K15" s="3">
+        <f>B13/B15</f>
+        <v>3.3367490174059515</v>
+      </c>
+      <c r="L15" s="3">
+        <f>B14/B15</f>
+        <v>1.8117630544637844</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4358,103 +7569,231 @@
       <c r="E20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>128</v>
       </c>
       <c r="B21">
-        <v>6076</v>
+        <v>5280</v>
       </c>
       <c r="C21">
-        <v>5216</v>
+        <v>5140</v>
       </c>
       <c r="D21">
-        <v>582</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1">
         <f>C21/B21</f>
-        <v>0.85845951283739297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.97348484848484851</v>
+      </c>
+      <c r="I21">
+        <v>128</v>
+      </c>
+      <c r="J21">
+        <v>286</v>
+      </c>
+      <c r="K21">
+        <f>(B3-J21)/B3</f>
+        <v>0.96693641618497106</v>
+      </c>
+      <c r="L21">
+        <f>1/((1-K21)+K21/2)</f>
+        <v>1.9359892569382271</v>
+      </c>
+      <c r="M21">
+        <f>1/((1-K21)+K21/4)</f>
+        <v>3.6390408077408498</v>
+      </c>
+      <c r="N21">
+        <f>1/((1-K21)+K21/8)</f>
+        <v>6.4964325948178736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>256</v>
       </c>
       <c r="B22">
-        <v>12877</v>
+        <v>11349</v>
       </c>
       <c r="C22">
-        <v>11119</v>
+        <v>11143</v>
       </c>
       <c r="D22">
-        <v>1286</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ref="E22:E25" si="2">C22/B22</f>
-        <v>0.8634775180554477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.98184862102387871</v>
+      </c>
+      <c r="I22">
+        <v>256</v>
+      </c>
+      <c r="J22">
+        <v>350</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K25" si="3">(B4-J22)/B4</f>
+        <v>0.98164848993288589</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:M25" si="4">1/((1-K22)+K22/2)</f>
+        <v>1.9639583976933375</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:N25" si="5">1/((1-K22)+K22/4)</f>
+        <v>3.79127323327701</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N25" si="6">1/((1-K22)+K22/8)</f>
+        <v>7.0893039680327101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>512</v>
       </c>
       <c r="B23">
-        <v>27470</v>
+        <v>24374</v>
       </c>
       <c r="C23">
-        <v>23774</v>
+        <v>24042</v>
       </c>
       <c r="D23">
-        <v>2822</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>0.86545322169639605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.98637892836629193</v>
+      </c>
+      <c r="I23">
+        <v>512</v>
+      </c>
+      <c r="J23">
+        <v>474</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.98866733610672786</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>1.9775886524822692</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>3.8684794672586018</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>7.4120148856990964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1024</v>
       </c>
       <c r="B24">
-        <v>58722</v>
+        <v>52684</v>
       </c>
       <c r="C24">
-        <v>50928</v>
+        <v>52094</v>
       </c>
       <c r="D24">
-        <v>6150</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>0.86727291304792076</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.98880115405056568</v>
+      </c>
+      <c r="I24">
+        <v>1024</v>
+      </c>
+      <c r="J24">
+        <v>731</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0.99202322104734775</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>1.9841726930238597</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>3.9065157618773578</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>7.5769238719279004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2048</v>
       </c>
       <c r="B25">
-        <v>125261</v>
+        <v>113145</v>
       </c>
       <c r="C25">
         <v>108729</v>
       </c>
       <c r="D25">
-        <v>13318</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>0.86801957512713457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.96097043616598166</v>
+      </c>
+      <c r="I25">
+        <v>2048</v>
+      </c>
+      <c r="J25">
+        <v>1234</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.99380543856390591</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>1.9876871498346147</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>3.9270214726798716</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>7.667521470326446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4473,8 +7812,20 @@
       <c r="F29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <f>B5/L23</f>
+        <v>21150.000000000004</v>
+      </c>
+      <c r="M29">
+        <f>B5/M23</f>
+        <v>10812</v>
+      </c>
+      <c r="N29">
+        <f>B5/N23</f>
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4493,10 +7844,10 @@
       </c>
       <c r="F30" s="2">
         <f>(B30*A30-B23)/A30</f>
-        <v>8056</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4510,15 +7861,15 @@
         <v>1030</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ref="E31:E34" si="3">C31/B31</f>
+        <f t="shared" ref="E31:E33" si="7">C31/B31</f>
         <v>0.80451433213415346</v>
       </c>
       <c r="F31" s="2">
         <f>(B31*A31-B23)/A31</f>
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4532,15 +7883,15 @@
         <v>454</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.7905278531191321</v>
       </c>
       <c r="F32" s="2">
         <f>(B32*A32-B23)/A32</f>
-        <v>2718.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3492.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -4554,23 +7905,26 @@
         <v>198</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.74689327485380119</v>
       </c>
       <c r="F33" s="2">
         <f>(B33*A33-B23)/A33</f>
-        <v>2038.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2425.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E34" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4586,8 +7940,14 @@
       <c r="E37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>128</v>
       </c>
@@ -4604,8 +7964,18 @@
         <f>C38/B38</f>
         <v>0.88466098345847688</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <f>B40/B47</f>
+        <v>0.82207039532582571</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>256</v>
       </c>
@@ -4619,11 +7989,21 @@
         <v>3965</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" ref="E39:E42" si="4">C39/B39</f>
+        <f t="shared" ref="E39:E42" si="8">C39/B39</f>
         <v>0.88573528293758397</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <f>B40/B48</f>
+        <v>1.7570142399645512</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>512</v>
       </c>
@@ -4637,11 +8017,21 @@
         <v>8949</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.88583579796868195</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" s="3">
+        <f>B40/B49</f>
+        <v>3.3070740768822504</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1024</v>
       </c>
@@ -4655,11 +8045,21 @@
         <v>19957</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.88586596232245673</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
+        <f>B40/B50</f>
+        <v>6.1488686825967438</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2048</v>
       </c>
@@ -4673,16 +8073,39 @@
         <v>44005</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.88566275794677241</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4701,99 +8124,407 @@
       <c r="F46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <f>B48/B47</f>
+        <v>0.4678791876737502</v>
+      </c>
+      <c r="L46" s="3">
+        <f>B49/B47</f>
+        <v>0.2485793714366489</v>
+      </c>
+      <c r="M46" s="3">
+        <f>B50/B47</f>
+        <v>0.13369457663855253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47">
-        <v>124646</v>
+        <v>106115</v>
       </c>
       <c r="C47">
-        <v>105389</v>
+        <v>93020</v>
       </c>
       <c r="D47">
         <v>9461</v>
       </c>
       <c r="E47" s="1">
         <f>C47/B47</f>
-        <v>0.84550647433531767</v>
+        <v>0.87659614569099564</v>
       </c>
       <c r="F47" s="2">
         <f>(B47*A47-B40)/A47</f>
-        <v>37412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18881</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3">
+        <f>B47/B48</f>
+        <v>2.1373038731897922</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
+        <f>B49/B48</f>
+        <v>0.53128965336663381</v>
+      </c>
+      <c r="M47" s="3">
+        <f>B50/B48</f>
+        <v>0.28574593647404783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>68180</v>
+        <v>49649</v>
       </c>
       <c r="C48">
-        <v>54740</v>
+        <v>42371</v>
       </c>
       <c r="D48">
         <v>4157</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ref="E48:E50" si="5">C48/B48</f>
-        <v>0.80287474332648867</v>
+        <f t="shared" ref="E48:E50" si="9">C48/B48</f>
+        <v>0.85341094483272573</v>
       </c>
       <c r="F48" s="2">
         <f>(B48*A48-B40)/A48</f>
-        <v>24563</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6032</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
+        <f>B47/B49</f>
+        <v>4.0228599590567899</v>
+      </c>
+      <c r="K48" s="3">
+        <f>B48/B49</f>
+        <v>1.8822124497687467</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
+        <f>B50/B49</f>
+        <v>0.53783455910228217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49">
-        <v>44909</v>
+        <v>26378</v>
       </c>
       <c r="C49">
-        <v>34479</v>
+        <v>22110</v>
       </c>
       <c r="D49">
         <v>2097</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="5"/>
-        <v>0.76775256630074151</v>
+        <f t="shared" si="9"/>
+        <v>0.83819849874895747</v>
       </c>
       <c r="F49" s="2">
         <f>(B49*A49-B40)/A49</f>
-        <v>23100.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4569.5</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <f>B47/B50</f>
+        <v>7.4797349686332559</v>
+      </c>
+      <c r="K49" s="3">
+        <f>B47/B49</f>
+        <v>4.0228599590567899</v>
+      </c>
+      <c r="L49" s="3">
+        <f>B49/B50</f>
+        <v>1.8593078170155777</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>8</v>
       </c>
       <c r="B50">
-        <v>32718</v>
+        <v>14187</v>
       </c>
       <c r="C50">
-        <v>23845</v>
+        <v>11476</v>
       </c>
       <c r="D50">
         <v>1055</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="5"/>
-        <v>0.72880371660859466</v>
+        <f t="shared" si="9"/>
+        <v>0.80890956509480505</v>
       </c>
       <c r="F50" s="2">
         <f>(B50*A50-B40)/A50</f>
-        <v>21813.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3282.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E51" s="1"/>
     </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>128</v>
+      </c>
+      <c r="B55">
+        <v>22974</v>
+      </c>
+      <c r="C55">
+        <v>15004</v>
+      </c>
+      <c r="D55">
+        <v>4259</v>
+      </c>
+      <c r="E55" s="1">
+        <f>C55/B55</f>
+        <v>0.65308609732741363</v>
+      </c>
+      <c r="I55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>256</v>
+      </c>
+      <c r="B56">
+        <v>52241</v>
+      </c>
+      <c r="C56">
+        <v>33965</v>
+      </c>
+      <c r="D56">
+        <v>9699</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" ref="E56:E58" si="10">C56/B56</f>
+        <v>0.65015983614402484</v>
+      </c>
+      <c r="I56">
+        <v>128</v>
+      </c>
+      <c r="J56" s="3">
+        <f>B55/B3</f>
+        <v>2.6559537572254337</v>
+      </c>
+      <c r="K56" s="3">
+        <f>B55/B21</f>
+        <v>4.351136363636364</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>512</v>
+      </c>
+      <c r="B57">
+        <v>116828</v>
+      </c>
+      <c r="C57">
+        <v>75694</v>
+      </c>
+      <c r="D57">
+        <v>21691</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="10"/>
+        <v>0.64790974766323139</v>
+      </c>
+      <c r="I57">
+        <v>256</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" ref="J57:J60" si="11">B56/B4</f>
+        <v>2.7391463926174495</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" ref="K57:K60" si="12">B56/B22</f>
+        <v>4.6031368402502419</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1024</v>
+      </c>
+      <c r="B58">
+        <v>258927</v>
+      </c>
+      <c r="C58">
+        <v>167359</v>
+      </c>
+      <c r="D58">
+        <v>48059</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="10"/>
+        <v>0.64635592271180675</v>
+      </c>
+      <c r="I58">
+        <v>512</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="11"/>
+        <v>2.7931908382345911</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="12"/>
+        <v>4.7931402313941085</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2048</v>
+      </c>
+      <c r="B59">
+        <v>567795</v>
+      </c>
+      <c r="C59">
+        <v>366257</v>
+      </c>
+      <c r="D59">
+        <v>105323</v>
+      </c>
+      <c r="E59" s="1">
+        <f>C59/B59</f>
+        <v>0.64505147104148508</v>
+      </c>
+      <c r="I59">
+        <v>1024</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="11"/>
+        <v>2.8254493076243166</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="12"/>
+        <v>4.9147179409308333</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>2048</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="11"/>
+        <v>2.8502763457107432</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="12"/>
+        <v>5.0182951080471963</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="3">
+        <f>AVERAGE(J56:J60)</f>
+        <v>2.7728033282825066</v>
+      </c>
+      <c r="K62" s="3">
+        <f>AVERAGE(K56:K60)</f>
+        <v>4.7360852968517495</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="J12:M15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:M49">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -4802,17 +8533,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB651C3-BB28-FD49-B9C7-9673EA907889}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E50" sqref="E44:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4996,16 +8727,16 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" t="s">
+      <c r="V14" t="s">
         <v>20</v>
-      </c>
-      <c r="O14" t="s">
-        <v>21</v>
-      </c>
-      <c r="V14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -5500,6 +9231,341 @@
       <c r="Z24" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>11545</v>
+      </c>
+      <c r="C30">
+        <v>10519</v>
+      </c>
+      <c r="D30">
+        <v>1024</v>
+      </c>
+      <c r="E30" s="3">
+        <f>C30/B30</f>
+        <v>0.91113035946297094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>10137</v>
+      </c>
+      <c r="C31">
+        <v>9111</v>
+      </c>
+      <c r="D31">
+        <v>1024</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ref="E31:E37" si="5">C31/B31</f>
+        <v>0.89878662326131997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>9433</v>
+      </c>
+      <c r="C32">
+        <v>8407</v>
+      </c>
+      <c r="D32">
+        <v>1024</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="5"/>
+        <v>0.89123290575638714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>9081</v>
+      </c>
+      <c r="C33">
+        <v>8055</v>
+      </c>
+      <c r="D33">
+        <v>1024</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8870168483647175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>8905</v>
+      </c>
+      <c r="C34">
+        <v>7879</v>
+      </c>
+      <c r="D34">
+        <v>1024</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88478382930937671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>8817</v>
+      </c>
+      <c r="C35">
+        <v>7791</v>
+      </c>
+      <c r="D35">
+        <v>1024</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88363388907791762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>8773</v>
+      </c>
+      <c r="C36">
+        <v>7747</v>
+      </c>
+      <c r="D36">
+        <v>1024</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88305026786732022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>8751</v>
+      </c>
+      <c r="C37">
+        <v>7725</v>
+      </c>
+      <c r="D37">
+        <v>1024</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88275625642783684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>7475</v>
+      </c>
+      <c r="C43">
+        <v>6688</v>
+      </c>
+      <c r="D43">
+        <v>513</v>
+      </c>
+      <c r="E43" s="3">
+        <f>C43/B43</f>
+        <v>0.89471571906354519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>5929</v>
+      </c>
+      <c r="C44">
+        <v>5280</v>
+      </c>
+      <c r="D44">
+        <v>513</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" ref="E44:E50" si="6">C44/B44</f>
+        <v>0.89053803339517623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>5161</v>
+      </c>
+      <c r="C45">
+        <v>4576</v>
+      </c>
+      <c r="D45">
+        <v>513</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88664987405541562</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>4778</v>
+      </c>
+      <c r="C46">
+        <v>4224</v>
+      </c>
+      <c r="D46">
+        <v>513</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88405190456257854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>4586</v>
+      </c>
+      <c r="C47">
+        <v>4048</v>
+      </c>
+      <c r="D47">
+        <v>513</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88268643698211946</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>4490</v>
+      </c>
+      <c r="C48">
+        <v>3960</v>
+      </c>
+      <c r="D48">
+        <v>513</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8819599109131403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>4442</v>
+      </c>
+      <c r="C49">
+        <v>3916</v>
+      </c>
+      <c r="D49">
+        <v>513</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88158487167942368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>4418</v>
+      </c>
+      <c r="C50">
+        <v>3894</v>
+      </c>
+      <c r="D50">
+        <v>513</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88139429606156627</v>
       </c>
     </row>
   </sheetData>
